--- a/Es Intf/data/Calcolo Variabili.xlsx
+++ b/Es Intf/data/Calcolo Variabili.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berni\Desktop\Lab3\Es Intf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0396DFDD-29B3-4D9B-A44C-756651CD2038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE59DC82-206B-4B48-BB72-853C4B843B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>D [cm]</t>
   </si>
@@ -130,6 +131,21 @@
   </si>
   <si>
     <t>h25</t>
+  </si>
+  <si>
+    <t>sind</t>
+  </si>
+  <si>
+    <t>lambda [nm]</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Dv [um]</t>
+  </si>
+  <si>
+    <t>f</t>
   </si>
 </sst>
 </file>
@@ -179,9 +195,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -197,6 +214,1041 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$J$3:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>3.898966725235288E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1348315755636977E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5406244563092209E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6347559988484882E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5895785521947788E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10439875619889277</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.11220136578347477</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11930744496759639</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12605815267253351</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.13211888018832249</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13782933875631756</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.14319137190643835</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.14854082533468396</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15354413192273184</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15853565693145202</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.16351505613756948</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.16782046430269801</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17244633613721014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.17673160311788907</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.18100684351542606</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.18494413814480629</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.1888725471196766</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19279190927293063</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.19637657460603661</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.19995338336315777</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20319810939005206</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$K$3:$K$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6DD8-4898-8112-94FA94EBC1A2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="436420464"/>
+        <c:axId val="436420792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="436420464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436420792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="436420792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="436420464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F339797B-EEDF-47E0-A001-977E2D172F47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -464,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,6 +1553,9 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2">
@@ -533,6 +1588,13 @@
       <c r="I3" t="s">
         <v>1</v>
       </c>
+      <c r="J3">
+        <f>1/SQRT(1 + (B$2/F3)^2)</f>
+        <v>3.898966725235288E-2</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F4">
@@ -548,6 +1610,13 @@
       <c r="I4" t="s">
         <v>5</v>
       </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J28" si="1">1/SQRT(1 + (B$2/F4)^2)</f>
+        <v>6.1348315755636977E-2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
       <c r="M4" s="1"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.25">
@@ -564,6 +1633,13 @@
       <c r="I5" t="s">
         <v>12</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>7.5406244563092209E-2</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F6">
@@ -579,6 +1655,13 @@
       <c r="I6" t="s">
         <v>6</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>8.6347559988484882E-2</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F7">
@@ -594,6 +1677,13 @@
       <c r="I7" t="s">
         <v>7</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>9.5895785521947788E-2</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F8">
@@ -609,6 +1699,13 @@
       <c r="I8" t="s">
         <v>13</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>0.10439875619889277</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F9">
@@ -624,6 +1721,13 @@
       <c r="I9" t="s">
         <v>14</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.11220136578347477</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F10">
@@ -639,6 +1743,13 @@
       <c r="I10" t="s">
         <v>15</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="1"/>
+        <v>0.11930744496759639</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F11">
@@ -654,6 +1765,13 @@
       <c r="I11" t="s">
         <v>16</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0.12605815267253351</v>
+      </c>
+      <c r="K11">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F12">
@@ -669,6 +1787,13 @@
       <c r="I12" t="s">
         <v>9</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>0.13211888018832249</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F13">
@@ -684,6 +1809,13 @@
       <c r="I13" t="s">
         <v>17</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="1"/>
+        <v>0.13782933875631756</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F14">
@@ -699,6 +1831,13 @@
       <c r="I14" t="s">
         <v>18</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>0.14319137190643835</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F15">
@@ -714,6 +1853,13 @@
       <c r="I15" t="s">
         <v>19</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>0.14854082533468396</v>
+      </c>
+      <c r="K15">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F16">
@@ -729,8 +1875,15 @@
       <c r="I16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <f t="shared" si="1"/>
+        <v>0.15354413192273184</v>
+      </c>
+      <c r="K16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F17">
         <v>46.5</v>
       </c>
@@ -744,8 +1897,15 @@
       <c r="I17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>0.15853565693145202</v>
+      </c>
+      <c r="K17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F18">
         <v>48</v>
       </c>
@@ -759,8 +1919,15 @@
       <c r="I18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f t="shared" si="1"/>
+        <v>0.16351505613756948</v>
+      </c>
+      <c r="K18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F19">
         <v>49.3</v>
       </c>
@@ -774,8 +1941,15 @@
       <c r="I19" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0.16782046430269801</v>
+      </c>
+      <c r="K19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F20">
         <v>50.7</v>
       </c>
@@ -789,8 +1963,15 @@
       <c r="I20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>0.17244633613721014</v>
+      </c>
+      <c r="K20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F21">
         <v>52</v>
       </c>
@@ -804,8 +1985,15 @@
       <c r="I21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>0.17673160311788907</v>
+      </c>
+      <c r="K21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F22">
         <v>53.3</v>
       </c>
@@ -819,8 +2007,15 @@
       <c r="I22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>0.18100684351542606</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F23">
         <v>54.5</v>
       </c>
@@ -834,8 +2029,15 @@
       <c r="I23" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0.18494413814480629</v>
+      </c>
+      <c r="K23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F24">
         <v>55.7</v>
       </c>
@@ -849,8 +2051,15 @@
       <c r="I24" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0.1888725471196766</v>
+      </c>
+      <c r="K24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F25">
         <v>56.9</v>
       </c>
@@ -864,8 +2073,15 @@
       <c r="I25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.19279190927293063</v>
+      </c>
+      <c r="K25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F26">
         <v>58</v>
       </c>
@@ -879,8 +2095,15 @@
       <c r="I26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>0.19637657460603661</v>
+      </c>
+      <c r="K26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F27">
         <v>59.1</v>
       </c>
@@ -894,8 +2117,15 @@
       <c r="I27" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0.19995338336315777</v>
+      </c>
+      <c r="K27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F28">
         <v>60.1</v>
       </c>
@@ -908,11 +2138,190 @@
       </c>
       <c r="I28" t="s">
         <v>31</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="1"/>
+        <v>0.20319810939005206</v>
+      </c>
+      <c r="K28">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9516477-CD91-47AC-8E0F-6BFAD453E8B1}">
+  <dimension ref="B1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>632.79999999999995</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
+      </c>
+      <c r="E2">
+        <f>C2/1000*B2/(2*D2)</f>
+        <v>0.21093333333333333</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>50</v>
+      </c>
+      <c r="J2">
+        <f>2*E8*I2/H2</f>
+        <v>0.50092899999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>632.79999999999995</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <f>C3/1000*B3/(2*D3)</f>
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="H3">
+        <v>37</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <f>2*E8*I3/H3</f>
+        <v>0.54154486486486486</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>632.79999999999995</v>
+      </c>
+      <c r="C4">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f>C4/1000*B4/(2*D4)</f>
+        <v>0.22780799999999995</v>
+      </c>
+      <c r="H4">
+        <v>45</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <f>2*E8*I4/H4</f>
+        <v>0.53432426666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>632.79999999999995</v>
+      </c>
+      <c r="C5">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>120</v>
+      </c>
+      <c r="E5">
+        <f>C5/1000*B5/(2*D5)</f>
+        <v>0.18456666666666666</v>
+      </c>
+      <c r="H5">
+        <v>70</v>
+      </c>
+      <c r="I5">
+        <v>95</v>
+      </c>
+      <c r="J5">
+        <f>2*E8*I5/H5</f>
+        <v>0.5438657714285714</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>632.79999999999995</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>160</v>
+      </c>
+      <c r="E6" s="2">
+        <f>C6/1000*B6/(2*D6)</f>
+        <v>0.19775000000000001</v>
+      </c>
+      <c r="H6">
+        <v>99</v>
+      </c>
+      <c r="I6">
+        <v>130</v>
+      </c>
+      <c r="J6">
+        <f>2*E8*I6/H6</f>
+        <v>0.52622844444444439</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f>AVERAGE(E2:E6)</f>
+        <v>0.20037159999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Es Intf/data/Calcolo Variabili.xlsx
+++ b/Es Intf/data/Calcolo Variabili.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\berni\Desktop\Lab3\Es Intf\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossi\OneDrive\Documenti\GitHub\Lab3\Es Intf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE59DC82-206B-4B48-BB72-853C4B843B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559E399-BA9D-4F61-924B-EA8F0BBDCDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -256,7 +256,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -540,7 +540,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="436420792"/>
@@ -602,7 +602,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="436420464"/>
@@ -643,7 +643,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1514,24 +1514,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K28"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34:E59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1557,7 +1557,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>289.60000000000002</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F3">
         <v>11.3</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F4">
         <v>17.8</v>
       </c>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F5">
         <v>21.9</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F6">
         <v>25.1</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F7">
         <v>27.9</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F8">
         <v>30.4</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F9">
         <v>32.700000000000003</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F10">
         <v>34.799999999999997</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F11">
         <v>36.799999999999997</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F12">
         <v>38.6</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F13">
         <v>40.299999999999997</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F14">
         <v>41.9</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F15">
         <v>43.5</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F16">
         <v>45</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F17">
         <v>46.5</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F18">
         <v>48</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F19">
         <v>49.3</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F20">
         <v>50.7</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F21">
         <v>52</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F22">
         <v>53.3</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F23">
         <v>54.5</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F24">
         <v>55.7</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F25">
         <v>56.9</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F26">
         <v>58</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F27">
         <v>59.1</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:11" x14ac:dyDescent="0.3">
       <c r="F28">
         <v>60.1</v>
       </c>
@@ -2145,6 +2145,526 @@
       </c>
       <c r="K28">
         <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>11.3</v>
+      </c>
+      <c r="B34">
+        <f>A34 -5.65</f>
+        <v>5.65</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <f>90-ATAN(B34/289.6)*180/PI()</f>
+        <v>88.882320126825888</v>
+      </c>
+      <c r="E34">
+        <f>SQRT((289.6*(C34/10)/(289.6^2+ B34^2))^2 + (B34*3/(289.6^2+B34^2))^2)*180/PI()</f>
+        <v>2.2915343594732702E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>17.8</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:B59" si="2">A35 -5.65</f>
+        <v>12.15</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D59" si="3">90-ATAN(B35/289.6)*180/PI()</f>
+        <v>87.597597695577335</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:E59" si="4">SQRT((289.6*(C35/10)/(289.6^2+ B35^2))^2 + (B35*3/(289.6^2+B35^2))^2)*180/PI()</f>
+        <v>3.1748241718693816E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>21.9</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="2"/>
+        <v>16.25</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>86.788393985173457</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="4"/>
+        <v>3.8615996431471442E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>25.1</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="2"/>
+        <v>19.450000000000003</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>86.15769385425105</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="4"/>
+        <v>4.4302491843711704E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>27.9</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="2"/>
+        <v>22.25</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>85.606589933625557</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="4"/>
+        <v>4.9416439688024165E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>30.4</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="2"/>
+        <v>24.75</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>85.115217111082899</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="4"/>
+        <v>5.4051967807680158E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="2"/>
+        <v>27.050000000000004</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>84.663787668188007</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="4"/>
+        <v>6.7522301324429157E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="2"/>
+        <v>29.15</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>84.2521910049323</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="4"/>
+        <v>7.0939460012187733E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="2"/>
+        <v>31.15</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>83.860746165289854</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="4"/>
+        <v>7.4250656836107945E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>38.6</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="2"/>
+        <v>32.950000000000003</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>83.508935975971951</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="4"/>
+        <v>7.726921712884291E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="2"/>
+        <v>34.65</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>83.177121089903352</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="4"/>
+        <v>8.0147334899129757E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>41.9</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="2"/>
+        <v>36.25</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>82.865243819142023</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="4"/>
+        <v>8.2875848489681006E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>43.5</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="2"/>
+        <v>37.85</v>
+      </c>
+      <c r="C46">
+        <v>2</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="3"/>
+        <v>82.553790961283369</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="4"/>
+        <v>8.5619752484628442E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="2"/>
+        <v>39.35</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="3"/>
+        <v>82.262204926287737</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="4"/>
+        <v>8.8203248437843981E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>46.5</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="2"/>
+        <v>40.85</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="3"/>
+        <v>81.971021592592948</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="4"/>
+        <v>9.0795005116567809E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="2"/>
+        <v>42.35</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="3"/>
+        <v>81.680255135913669</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="4"/>
+        <v>0.10294779937977747</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49.3</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="2"/>
+        <v>43.65</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="3"/>
+        <v>81.428605609862814</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="4"/>
+        <v>0.10497435668290379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50.7</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="2"/>
+        <v>45.050000000000004</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="3"/>
+        <v>81.157970806268665</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>0.10716822888087894</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="2"/>
+        <v>46.35</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="3"/>
+        <v>80.907022413514582</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>0.1092144536798301</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>53.3</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="2"/>
+        <v>47.65</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="3"/>
+        <v>80.656425351511928</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>0.10259268962323441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>54.5</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="2"/>
+        <v>48.85</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="3"/>
+        <v>80.425424456187883</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>0.10467514306805099</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>55.7</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="2"/>
+        <v>50.050000000000004</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="3"/>
+        <v>80.194737328429824</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>0.10675582667191558</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>56.9</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="2"/>
+        <v>51.25</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="3"/>
+        <v>79.964370793126193</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>0.10883408900581062</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="2"/>
+        <v>52.35</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="3"/>
+        <v>79.753488879088508</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>0.11073651198796623</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>59.1</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="2"/>
+        <v>53.45</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="3"/>
+        <v>79.542887201546932</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>0.10765069799819005</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>60.1</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="2"/>
+        <v>54.45</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="3"/>
+        <v>79.351678621559529</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>0.10946549690279676</v>
       </c>
     </row>
   </sheetData>
@@ -2159,17 +2679,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9516477-CD91-47AC-8E0F-6BFAD453E8B1}">
   <dimension ref="B1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -2189,7 +2709,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>632.79999999999995</v>
       </c>
@@ -2214,7 +2734,7 @@
         <v>0.50092899999999996</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>632.79999999999995</v>
       </c>
@@ -2239,7 +2759,7 @@
         <v>0.54154486486486486</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>632.79999999999995</v>
       </c>
@@ -2264,7 +2784,7 @@
         <v>0.53432426666666666</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>632.79999999999995</v>
       </c>
@@ -2289,7 +2809,7 @@
         <v>0.5438657714285714</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>632.79999999999995</v>
       </c>
@@ -2314,7 +2834,7 @@
         <v>0.52622844444444439</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E8">
         <f>AVERAGE(E2:E6)</f>
         <v>0.20037159999999998</v>

--- a/Es Intf/data/Calcolo Variabili.xlsx
+++ b/Es Intf/data/Calcolo Variabili.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossi\OneDrive\Documenti\GitHub\Lab3\Es Intf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0559E399-BA9D-4F61-924B-EA8F0BBDCDAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B52BD11-58AF-4D62-A686-FA25515D79A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>D [cm]</t>
   </si>
@@ -146,12 +146,28 @@
   </si>
   <si>
     <t>f</t>
+  </si>
+  <si>
+    <t>sin</t>
+  </si>
+  <si>
+    <t>dsin</t>
+  </si>
+  <si>
+    <t>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222,0,985392260423192,0,984699580016622,0,984051531236334,0,983391039558287,0,982779861075824</t>
+  </si>
+  <si>
+    <t>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208,0,000316093181747966,0,000329740415636572,0,000342479468801278,0,000339663919758795,0,000351634505455542</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.E+00"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -195,10 +211,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1514,15 +1535,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M59"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34:E59"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" customWidth="1"/>
     <col min="14" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -2147,524 +2169,750 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>11.3</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <f>A34 -5.65</f>
         <v>5.65</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <v>1</v>
       </c>
-      <c r="D34">
-        <f>90-ATAN(B34/289.6)*180/PI()</f>
-        <v>88.882320126825888</v>
-      </c>
-      <c r="E34">
-        <f>SQRT((289.6*(C34/10)/(289.6^2+ B34^2))^2 + (B34*3/(289.6^2+B34^2))^2)*180/PI()</f>
-        <v>2.2915343594732702E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D34" s="3">
+        <f>1/SQRT(1+(B34/289.6)^2)</f>
+        <v>0.99980974072901119</v>
+      </c>
+      <c r="E34" s="5">
+        <f>SQRT(9*(B34^2/((1 + B34^2/290^2)^(3/2) *290^3))^2 + (C34/10)^2 * (B34/(290^2 *(1 + B34^2/290^2)^(3/2)))^2)</f>
+        <v>7.7771415474134085E-6</v>
+      </c>
+      <c r="F34" s="3">
+        <f>D34</f>
+        <v>0.99980974072901119</v>
+      </c>
+      <c r="G34" s="5">
+        <f>E34</f>
+        <v>7.7771415474134085E-6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>17.8</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="7">
         <f t="shared" ref="B35:B59" si="2">A35 -5.65</f>
         <v>12.15</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <v>1</v>
       </c>
-      <c r="D35">
-        <f t="shared" ref="D35:D59" si="3">90-ATAN(B35/289.6)*180/PI()</f>
-        <v>87.597597695577335</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ref="E35:E59" si="4">SQRT((289.6*(C35/10)/(289.6^2+ B35^2))^2 + (B35*3/(289.6^2+B35^2))^2)*180/PI()</f>
-        <v>3.1748241718693816E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D35" s="3">
+        <f t="shared" ref="D35:D59" si="3">1/SQRT(1+(B35/289.6)^2)</f>
+        <v>0.99912107345313572</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" ref="E35:E59" si="4">SQRT(9*(B35^2/((1 + B35^2/290^2)^(3/2) *290^3))^2 + (C35/10)^2 * (B35/(290^2 *(1 + B35^2/290^2)^(3/2)))^2)</f>
+        <v>2.314354505696139E-5</v>
+      </c>
+      <c r="F35" t="str">
+        <f>F34&amp;","&amp;D35</f>
+        <v>0,999809740729011,0,999121073453136</v>
+      </c>
+      <c r="G35" t="str">
+        <f>G34&amp;","&amp;E35</f>
+        <v>7,77714154741341E-06,2,31435450569614E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>21.9</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="7">
         <f t="shared" si="2"/>
         <v>16.25</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <v>1</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <f t="shared" si="3"/>
-        <v>86.788393985173457</v>
-      </c>
-      <c r="E36">
+        <v>0.99842943631702452</v>
+      </c>
+      <c r="E36" s="5">
         <f t="shared" si="4"/>
-        <v>3.8615996431471442E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.7616694844617859E-5</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" ref="F36:F59" si="5">F35&amp;","&amp;D36</f>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025</v>
+      </c>
+      <c r="G36" t="str">
+        <f t="shared" ref="G36:G59" si="6">G35&amp;","&amp;E36</f>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>25.1</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="7">
         <f t="shared" si="2"/>
         <v>19.450000000000003</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>1</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <f t="shared" si="3"/>
-        <v>86.15769385425105</v>
-      </c>
-      <c r="E37">
+        <v>0.99775226086773938</v>
+      </c>
+      <c r="E37" s="5">
         <f t="shared" si="4"/>
-        <v>4.4302491843711704E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>5.1615203080806592E-5</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739</v>
+      </c>
+      <c r="G37" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>27.9</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="7">
         <f t="shared" si="2"/>
         <v>22.25</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>1</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <f t="shared" si="3"/>
-        <v>85.606589933625557</v>
-      </c>
-      <c r="E38">
+        <v>0.99706156955080083</v>
+      </c>
+      <c r="E38" s="5">
         <f t="shared" si="4"/>
-        <v>4.9416439688024165E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>6.5812674882344304E-5</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801</v>
+      </c>
+      <c r="G38" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>30.4</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="7">
         <f t="shared" si="2"/>
         <v>24.75</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>1</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <f t="shared" si="3"/>
-        <v>85.115217111082899</v>
-      </c>
-      <c r="E39">
+        <v>0.99636794681966856</v>
+      </c>
+      <c r="E39" s="5">
         <f t="shared" si="4"/>
-        <v>5.4051967807680158E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>8.0016438249171234E-5</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669</v>
+      </c>
+      <c r="G39" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>32.700000000000003</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="7">
         <f t="shared" si="2"/>
         <v>27.050000000000004</v>
       </c>
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40">
+      <c r="C40" s="4">
+        <v>2</v>
+      </c>
+      <c r="D40" s="3">
         <f t="shared" si="3"/>
-        <v>84.663787668188007</v>
-      </c>
-      <c r="E40">
+        <v>0.99566611884798595</v>
+      </c>
+      <c r="E40" s="5">
         <f t="shared" si="4"/>
-        <v>6.7522301324429157E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.0920103362767855E-4</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986</v>
+      </c>
+      <c r="G40" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>34.799999999999997</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="7">
         <f t="shared" si="2"/>
         <v>29.15</v>
       </c>
-      <c r="C41">
-        <v>2</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="4">
+        <v>2</v>
+      </c>
+      <c r="D41" s="3">
         <f t="shared" si="3"/>
-        <v>84.2521910049323</v>
-      </c>
-      <c r="E41">
+        <v>0.99497234873995388</v>
+      </c>
+      <c r="E41" s="5">
         <f t="shared" si="4"/>
-        <v>7.0939460012187733E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.235432162104718E-4</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954</v>
+      </c>
+      <c r="G41" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>36.799999999999997</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="7">
         <f t="shared" si="2"/>
         <v>31.15</v>
       </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="D42">
+      <c r="C42" s="4">
+        <v>2</v>
+      </c>
+      <c r="D42" s="3">
         <f t="shared" si="3"/>
-        <v>83.860746165289854</v>
-      </c>
-      <c r="E42">
+        <v>0.99426490834529158</v>
+      </c>
+      <c r="E42" s="5">
         <f t="shared" si="4"/>
-        <v>7.4250656836107945E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.3807912374212054E-4</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>38.6</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="7">
         <f t="shared" si="2"/>
         <v>32.950000000000003</v>
       </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
+      <c r="C43" s="4">
+        <v>2</v>
+      </c>
+      <c r="D43" s="3">
         <f t="shared" si="3"/>
-        <v>83.508935975971951</v>
-      </c>
-      <c r="E43">
+        <v>0.99358949901515092</v>
+      </c>
+      <c r="E43" s="5">
         <f t="shared" si="4"/>
-        <v>7.726921712884291E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.5188879095719187E-4</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151</v>
+      </c>
+      <c r="G43" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>40.299999999999997</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="7">
         <f t="shared" si="2"/>
         <v>34.65</v>
       </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
+      <c r="C44" s="4">
+        <v>2</v>
+      </c>
+      <c r="D44" s="3">
         <f t="shared" si="3"/>
-        <v>83.177121089903352</v>
-      </c>
-      <c r="E44">
+        <v>0.99291814878130835</v>
+      </c>
+      <c r="E44" s="5">
         <f t="shared" si="4"/>
-        <v>8.0147334899129757E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.6555937251475214E-4</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>41.9</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="7">
         <f t="shared" si="2"/>
         <v>36.25</v>
       </c>
-      <c r="C45">
-        <v>2</v>
-      </c>
-      <c r="D45">
+      <c r="C45" s="4">
+        <v>2</v>
+      </c>
+      <c r="D45" s="3">
         <f t="shared" si="3"/>
-        <v>82.865243819142023</v>
-      </c>
-      <c r="E45">
+        <v>0.99225677744718144</v>
+      </c>
+      <c r="E45" s="5">
         <f t="shared" si="4"/>
-        <v>8.2875848489681006E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.7897850296161641E-4</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43.5</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="7">
         <f t="shared" si="2"/>
         <v>37.85</v>
       </c>
-      <c r="C46">
-        <v>2</v>
-      </c>
-      <c r="D46">
+      <c r="C46" s="4">
+        <v>2</v>
+      </c>
+      <c r="D46" s="3">
         <f t="shared" si="3"/>
-        <v>82.553790961283369</v>
-      </c>
-      <c r="E46">
+        <v>0.9915669662501928</v>
+      </c>
+      <c r="E46" s="5">
         <f t="shared" si="4"/>
-        <v>8.5619752484628442E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1.929285286238967E-4</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="7">
         <f t="shared" si="2"/>
         <v>39.35</v>
       </c>
-      <c r="C47">
-        <v>2</v>
-      </c>
-      <c r="D47">
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+      <c r="D47" s="3">
         <f t="shared" si="3"/>
-        <v>82.262204926287737</v>
-      </c>
-      <c r="E47">
+        <v>0.99089460033177268</v>
+      </c>
+      <c r="E47" s="5">
         <f t="shared" si="4"/>
-        <v>8.8203248437843981E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.0648392958541261E-4</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46.5</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="7">
         <f t="shared" si="2"/>
         <v>40.85</v>
       </c>
-      <c r="C48">
-        <v>2</v>
-      </c>
-      <c r="D48">
+      <c r="C48" s="4">
+        <v>2</v>
+      </c>
+      <c r="D48" s="3">
         <f t="shared" si="3"/>
-        <v>81.971021592592948</v>
-      </c>
-      <c r="E48">
+        <v>0.99019755270096221</v>
+      </c>
+      <c r="E48" s="5">
         <f t="shared" si="4"/>
-        <v>9.0795005116567809E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.2049612702551089E-4</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="7">
         <f t="shared" si="2"/>
         <v>42.35</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <v>3</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <f t="shared" si="3"/>
-        <v>81.680255135913669</v>
-      </c>
-      <c r="E49">
+        <v>0.98947598330545794</v>
+      </c>
+      <c r="E49" s="5">
         <f t="shared" si="4"/>
-        <v>0.10294779937977747</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.5905084010525005E-4</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49.3</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="7">
         <f t="shared" si="2"/>
         <v>43.65</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <v>3</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <f t="shared" si="3"/>
-        <v>81.428605609862814</v>
-      </c>
-      <c r="E50">
+        <v>0.9888309151400031</v>
+      </c>
+      <c r="E50" s="5">
         <f t="shared" si="4"/>
-        <v>0.10497435668290379</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.7207790646917426E-4</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50.7</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="7">
         <f t="shared" si="2"/>
         <v>45.050000000000004</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <v>3</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <f t="shared" si="3"/>
-        <v>81.157970806268665</v>
-      </c>
-      <c r="E51">
+        <v>0.98811589315198112</v>
+      </c>
+      <c r="E51" s="5">
         <f t="shared" si="4"/>
-        <v>0.10716822888087894</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.8646205741511761E-4</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="7">
         <f t="shared" si="2"/>
         <v>46.35</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="4">
         <v>3</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <f t="shared" si="3"/>
-        <v>80.907022413514582</v>
-      </c>
-      <c r="E52">
+        <v>0.98743318385728207</v>
+      </c>
+      <c r="E52" s="5">
         <f t="shared" si="4"/>
-        <v>0.1092144536798301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.0014519368946364E-4</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53.3</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="7">
         <f t="shared" si="2"/>
         <v>47.65</v>
       </c>
-      <c r="C53">
-        <v>2</v>
-      </c>
-      <c r="D53">
+      <c r="C53" s="4">
+        <v>2</v>
+      </c>
+      <c r="D53" s="3">
         <f t="shared" si="3"/>
-        <v>80.656425351511928</v>
-      </c>
-      <c r="E53">
+        <v>0.98673252791017285</v>
+      </c>
+      <c r="E53" s="5">
         <f t="shared" si="4"/>
-        <v>0.10259268962323441</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>2.895951102961281E-4</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54.5</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="7">
         <f t="shared" si="2"/>
         <v>48.85</v>
       </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="D54">
+      <c r="C54" s="4">
+        <v>2</v>
+      </c>
+      <c r="D54" s="3">
         <f t="shared" si="3"/>
-        <v>80.425424456187883</v>
-      </c>
-      <c r="E54">
+        <v>0.98606994203622167</v>
+      </c>
+      <c r="E54" s="5">
         <f t="shared" si="4"/>
-        <v>0.10467514306805099</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.0271023622720808E-4</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55.7</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="7">
         <f t="shared" si="2"/>
         <v>50.050000000000004</v>
       </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
+      <c r="C55" s="4">
+        <v>2</v>
+      </c>
+      <c r="D55" s="3">
         <f t="shared" si="3"/>
-        <v>80.194737328429824</v>
-      </c>
-      <c r="E55">
+        <v>0.98539226042319161</v>
+      </c>
+      <c r="E55" s="5">
         <f t="shared" si="4"/>
-        <v>0.10675582667191558</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.1609318174796627E-4</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222,0,985392260423192</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208,0,000316093181747966</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56.9</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="7">
         <f t="shared" si="2"/>
         <v>51.25</v>
       </c>
-      <c r="C56">
-        <v>2</v>
-      </c>
-      <c r="D56">
+      <c r="C56" s="4">
+        <v>2</v>
+      </c>
+      <c r="D56" s="3">
         <f t="shared" si="3"/>
-        <v>79.964370793126193</v>
-      </c>
-      <c r="E56">
+        <v>0.98469958001662206</v>
+      </c>
+      <c r="E56" s="5">
         <f t="shared" si="4"/>
-        <v>0.10883408900581062</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.2974041563657163E-4</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222,0,985392260423192,0,984699580016622</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208,0,000316093181747966,0,000329740415636572</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>58</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="7">
         <f t="shared" si="2"/>
         <v>52.35</v>
       </c>
-      <c r="C57">
-        <v>2</v>
-      </c>
-      <c r="D57">
+      <c r="C57" s="4">
+        <v>2</v>
+      </c>
+      <c r="D57" s="3">
         <f t="shared" si="3"/>
-        <v>79.753488879088508</v>
-      </c>
-      <c r="E57">
+        <v>0.98405153123633393</v>
+      </c>
+      <c r="E57" s="5">
         <f t="shared" si="4"/>
-        <v>0.11073651198796623</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.4247946880127826E-4</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222,0,985392260423192,0,984699580016622,0,984051531236334</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208,0,000316093181747966,0,000329740415636572,0,000342479468801278</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>59.1</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="7">
         <f t="shared" si="2"/>
         <v>53.45</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="4">
         <v>1</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <f t="shared" si="3"/>
-        <v>79.542887201546932</v>
-      </c>
-      <c r="E58">
+        <v>0.98339103955828666</v>
+      </c>
+      <c r="E58" s="5">
         <f t="shared" si="4"/>
-        <v>0.10765069799819005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3.3966391975879504E-4</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222,0,985392260423192,0,984699580016622,0,984051531236334,0,983391039558287</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208,0,000316093181747966,0,000329740415636572,0,000342479468801278,0,000339663919758795</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>60.1</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="7">
         <f t="shared" si="2"/>
         <v>54.45</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="4">
         <v>1</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <f t="shared" si="3"/>
-        <v>79.351678621559529</v>
-      </c>
-      <c r="E59">
+        <v>0.9827798610758236</v>
+      </c>
+      <c r="E59" s="5">
         <f t="shared" si="4"/>
-        <v>0.10946549690279676</v>
+        <v>3.5163450545554198E-4</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="5"/>
+        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222,0,985392260423192,0,984699580016622,0,984051531236334,0,983391039558287,0,982779861075824</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="6"/>
+        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208,0,000316093181747966,0,000329740415636572,0,000342479468801278,0,000339663919758795,0,000351634505455542</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2679,8 +2927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9516477-CD91-47AC-8E0F-6BFAD453E8B1}">
   <dimension ref="B1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2799,14 +3047,14 @@
         <v>0.18456666666666666</v>
       </c>
       <c r="H5">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I5">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="J5">
         <f>2*E8*I5/H5</f>
-        <v>0.5438657714285714</v>
+        <v>0.54896328767123292</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
@@ -2814,24 +3062,24 @@
         <v>632.79999999999995</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D6">
-        <v>160</v>
+        <v>240</v>
       </c>
       <c r="E6" s="2">
         <f>C6/1000*B6/(2*D6)</f>
-        <v>0.19775000000000001</v>
+        <v>0.19774999999999998</v>
       </c>
       <c r="H6">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="I6">
         <v>130</v>
       </c>
       <c r="J6">
         <f>2*E8*I6/H6</f>
-        <v>0.52622844444444439</v>
+        <v>0.54267308333333331</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">

--- a/Es Intf/data/Calcolo Variabili.xlsx
+++ b/Es Intf/data/Calcolo Variabili.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossi\OneDrive\Documenti\GitHub\Lab3\Es Intf\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B52BD11-58AF-4D62-A686-FA25515D79A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F768598-E427-4AB6-9605-B0F25208E22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -154,19 +154,18 @@
     <t>dsin</t>
   </si>
   <si>
-    <t>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222,0,985392260423192,0,984699580016622,0,984051531236334,0,983391039558287,0,982779861075824</t>
-  </si>
-  <si>
     <t>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208,0,000316093181747966,0,000329740415636572,0,000342479468801278,0,000339663919758795,0,000351634505455542</t>
+  </si>
+  <si>
+    <t>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146,0,990952713457447,0,990282496365352,0,989683150405386,0,989018614010296,0,988383925755408,0,987732374693256,0,987116065139517,0,986485558026735,0,985840937841868,0,985237711552215,0,984622766127021,0,984053612983584</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.E+00"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -211,15 +210,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1537,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34:E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2182,737 +2180,742 @@
         <v>11.3</v>
       </c>
       <c r="B34" s="6">
-        <f>A34 -5.65</f>
-        <v>5.65</v>
+        <f>0.965*A34 -5.65</f>
+        <v>5.2545000000000002</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
       </c>
       <c r="D34" s="3">
         <f>1/SQRT(1+(B34/289.6)^2)</f>
-        <v>0.99980974072901119</v>
+        <v>0.99983543841205358</v>
       </c>
       <c r="E34" s="5">
         <f>SQRT(9*(B34^2/((1 + B34^2/290^2)^(3/2) *290^3))^2 + (C34/10)^2 * (B34/(290^2 *(1 + B34^2/290^2)^(3/2)))^2)</f>
-        <v>7.7771415474134085E-6</v>
+        <v>7.1077931990125949E-6</v>
       </c>
       <c r="F34" s="3">
         <f>D34</f>
-        <v>0.99980974072901119</v>
+        <v>0.99983543841205358</v>
       </c>
       <c r="G34" s="5">
         <f>E34</f>
-        <v>7.7771415474134085E-6</v>
+        <v>7.1077931990125949E-6</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>17.8</v>
       </c>
-      <c r="B35" s="7">
-        <f t="shared" ref="B35:B59" si="2">A35 -5.65</f>
-        <v>12.15</v>
+      <c r="B35" s="6">
+        <f t="shared" ref="B35:B59" si="2">0.965*A35 -5.65</f>
+        <v>11.526999999999999</v>
       </c>
       <c r="C35" s="4">
         <v>1</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" ref="D35:D59" si="3">1/SQRT(1+(B35/289.6)^2)</f>
-        <v>0.99912107345313572</v>
+        <v>0.9992087935615156</v>
       </c>
       <c r="E35" s="5">
         <f t="shared" ref="E35:E59" si="4">SQRT(9*(B35^2/((1 + B35^2/290^2)^(3/2) *290^3))^2 + (C35/10)^2 * (B35/(290^2 *(1 + B35^2/290^2)^(3/2)))^2)</f>
-        <v>2.314354505696139E-5</v>
+        <v>2.1280064146600303E-5</v>
       </c>
       <c r="F35" t="str">
         <f>F34&amp;","&amp;D35</f>
-        <v>0,999809740729011,0,999121073453136</v>
+        <v>0,999835438412054,0,999208793561516</v>
       </c>
       <c r="G35" t="str">
         <f>G34&amp;","&amp;E35</f>
-        <v>7,77714154741341E-06,2,31435450569614E-05</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>21.9</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="6">
         <f t="shared" si="2"/>
-        <v>16.25</v>
+        <v>15.483499999999998</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="3"/>
-        <v>0.99842943631702452</v>
+        <v>0.99857379713551686</v>
       </c>
       <c r="E36" s="5">
         <f t="shared" si="4"/>
-        <v>3.7616694844617859E-5</v>
+        <v>3.46165334026912E-5</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" ref="F36:F59" si="5">F35&amp;","&amp;D36</f>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" ref="G36:G59" si="6">G35&amp;","&amp;E36</f>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>25.1</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="6">
         <f t="shared" si="2"/>
-        <v>19.450000000000003</v>
+        <v>18.5715</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="3"/>
-        <v>0.99775226086773938</v>
+        <v>0.99795011322451177</v>
       </c>
       <c r="E37" s="5">
         <f t="shared" si="4"/>
-        <v>5.1615203080806592E-5</v>
+        <v>4.7535290319383129E-5</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512</v>
       </c>
       <c r="G37" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>27.9</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="6">
         <f t="shared" si="2"/>
-        <v>22.25</v>
+        <v>21.273499999999999</v>
       </c>
       <c r="C38" s="4">
         <v>1</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" si="3"/>
-        <v>0.99706156955080083</v>
+        <v>0.99731281546704331</v>
       </c>
       <c r="E38" s="5">
         <f t="shared" si="4"/>
-        <v>6.5812674882344304E-5</v>
+        <v>6.0655313566719297E-5</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043</v>
       </c>
       <c r="G38" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>30.4</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="6">
         <f t="shared" si="2"/>
-        <v>24.75</v>
+        <v>23.686</v>
       </c>
       <c r="C39" s="4">
         <v>1</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="3"/>
-        <v>0.99636794681966856</v>
+        <v>0.99667199386460348</v>
       </c>
       <c r="E39" s="5">
         <f t="shared" si="4"/>
-        <v>8.0016438249171234E-5</v>
+        <v>7.379601342673349E-5</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603</v>
       </c>
       <c r="G39" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>32.700000000000003</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="6">
         <f t="shared" si="2"/>
-        <v>27.050000000000004</v>
+        <v>25.905500000000004</v>
       </c>
       <c r="C40" s="4">
         <v>2</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="3"/>
-        <v>0.99566611884798595</v>
+        <v>0.996022959537613</v>
       </c>
       <c r="E40" s="5">
         <f t="shared" si="4"/>
-        <v>1.0920103362767855E-4</v>
+        <v>1.0178252896746538E-4</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613</v>
       </c>
       <c r="G40" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>34.799999999999997</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="6">
         <f t="shared" si="2"/>
-        <v>29.15</v>
+        <v>27.931999999999995</v>
       </c>
       <c r="C41" s="4">
         <v>2</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="3"/>
-        <v>0.99497234873995388</v>
+        <v>0.99538087483690252</v>
       </c>
       <c r="E41" s="5">
         <f t="shared" si="4"/>
-        <v>1.235432162104718E-4</v>
+        <v>1.1510967036542987E-4</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903</v>
       </c>
       <c r="G41" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>36.799999999999997</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="6">
         <f t="shared" si="2"/>
-        <v>31.15</v>
+        <v>29.861999999999995</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="3"/>
-        <v>0.99426490834529158</v>
+        <v>0.99472570804029292</v>
       </c>
       <c r="E42" s="5">
         <f t="shared" si="4"/>
-        <v>1.3807912374212054E-4</v>
+        <v>1.2862015649564047E-4</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293</v>
       </c>
       <c r="G42" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>38.6</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="6">
         <f t="shared" si="2"/>
-        <v>32.950000000000003</v>
+        <v>31.599000000000004</v>
       </c>
       <c r="C43" s="4">
         <v>2</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="3"/>
-        <v>0.99358949901515092</v>
+        <v>0.99409985504178477</v>
       </c>
       <c r="E43" s="5">
         <f t="shared" si="4"/>
-        <v>1.5188879095719187E-4</v>
+        <v>1.4145954918069888E-4</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>40.299999999999997</v>
       </c>
-      <c r="B44" s="7">
+      <c r="B44" s="6">
         <f t="shared" si="2"/>
-        <v>34.65</v>
+        <v>33.2395</v>
       </c>
       <c r="C44" s="4">
         <v>2</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="3"/>
-        <v>0.99291814878130835</v>
+        <v>0.99347746289109773</v>
       </c>
       <c r="E44" s="5">
         <f t="shared" si="4"/>
-        <v>1.6555937251475214E-4</v>
+        <v>1.5417384095402144E-4</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098</v>
       </c>
       <c r="G44" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>41.9</v>
       </c>
-      <c r="B45" s="7">
+      <c r="B45" s="6">
         <f t="shared" si="2"/>
-        <v>36.25</v>
+        <v>34.783499999999997</v>
       </c>
       <c r="C45" s="4">
         <v>2</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="3"/>
-        <v>0.99225677744718144</v>
+        <v>0.99286405740030192</v>
       </c>
       <c r="E45" s="5">
         <f t="shared" si="4"/>
-        <v>1.7897850296161641E-4</v>
+        <v>1.6665860566379223E-4</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302</v>
       </c>
       <c r="G45" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>43.5</v>
       </c>
-      <c r="B46" s="7">
+      <c r="B46" s="6">
         <f t="shared" si="2"/>
-        <v>37.85</v>
+        <v>36.327500000000001</v>
       </c>
       <c r="C46" s="4">
         <v>2</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="3"/>
-        <v>0.9915669662501928</v>
+        <v>0.99222401869800614</v>
       </c>
       <c r="E46" s="5">
         <f t="shared" si="4"/>
-        <v>1.929285286238967E-4</v>
+        <v>1.7964201491709939E-4</v>
       </c>
       <c r="F46" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006</v>
       </c>
       <c r="G46" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>45</v>
       </c>
-      <c r="B47" s="7">
+      <c r="B47" s="6">
         <f t="shared" si="2"/>
-        <v>39.35</v>
+        <v>37.774999999999999</v>
       </c>
       <c r="C47" s="4">
         <v>2</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="3"/>
-        <v>0.99089460033177268</v>
+        <v>0.9915999338514595</v>
       </c>
       <c r="E47" s="5">
         <f t="shared" si="4"/>
-        <v>2.0648392958541261E-4</v>
+        <v>1.9226283997151062E-4</v>
       </c>
       <c r="F47" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146</v>
       </c>
       <c r="G47" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099,0,000192262839971511</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>46.5</v>
       </c>
-      <c r="B48" s="7">
+      <c r="B48" s="6">
         <f t="shared" si="2"/>
-        <v>40.85</v>
+        <v>39.222499999999997</v>
       </c>
       <c r="C48" s="4">
         <v>2</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" si="3"/>
-        <v>0.99019755270096221</v>
+        <v>0.99095271345744695</v>
       </c>
       <c r="E48" s="5">
         <f t="shared" si="4"/>
-        <v>2.2049612702551089E-4</v>
+        <v>2.0531388467202015E-4</v>
       </c>
       <c r="F48" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146,0,990952713457447</v>
       </c>
       <c r="G48" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099,0,000192262839971511,0,00020531388467202</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B49" s="6">
         <f t="shared" si="2"/>
-        <v>42.35</v>
+        <v>40.67</v>
       </c>
       <c r="C49" s="4">
         <v>3</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" si="3"/>
-        <v>0.98947598330545794</v>
+        <v>0.99028249636535204</v>
       </c>
       <c r="E49" s="5">
         <f t="shared" si="4"/>
-        <v>2.5905084010525005E-4</v>
+        <v>2.4269062839462515E-4</v>
       </c>
       <c r="F49" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146,0,990952713457447,0,990282496365352</v>
       </c>
       <c r="G49" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099,0,000192262839971511,0,00020531388467202,0,000242690628394625</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49.3</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B50" s="6">
         <f t="shared" si="2"/>
-        <v>43.65</v>
+        <v>41.924499999999995</v>
       </c>
       <c r="C50" s="4">
         <v>3</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" si="3"/>
-        <v>0.9888309151400031</v>
+        <v>0.98968315040538557</v>
       </c>
       <c r="E50" s="5">
         <f t="shared" si="4"/>
-        <v>2.7207790646917426E-4</v>
+        <v>2.5485642494992803E-4</v>
       </c>
       <c r="F50" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146,0,990952713457447,0,990282496365352,0,989683150405386</v>
       </c>
       <c r="G50" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099,0,000192262839971511,0,00020531388467202,0,000242690628394625,0,000254856424949928</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50.7</v>
       </c>
-      <c r="B51" s="7">
+      <c r="B51" s="6">
         <f t="shared" si="2"/>
-        <v>45.050000000000004</v>
+        <v>43.275500000000001</v>
       </c>
       <c r="C51" s="4">
         <v>3</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="3"/>
-        <v>0.98811589315198112</v>
+        <v>0.989018614010296</v>
       </c>
       <c r="E51" s="5">
         <f t="shared" si="4"/>
-        <v>2.8646205741511761E-4</v>
+        <v>2.6829242345136512E-4</v>
       </c>
       <c r="F51" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146,0,990952713457447,0,990282496365352,0,989683150405386,0,989018614010296</v>
       </c>
       <c r="G51" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099,0,000192262839971511,0,00020531388467202,0,000242690628394625,0,000254856424949928,0,000268292423451365</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
-      <c r="B52" s="7">
+      <c r="B52" s="6">
         <f t="shared" si="2"/>
-        <v>46.35</v>
+        <v>44.53</v>
       </c>
       <c r="C52" s="4">
         <v>3</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" si="3"/>
-        <v>0.98743318385728207</v>
+        <v>0.9883839257554079</v>
       </c>
       <c r="E52" s="5">
         <f t="shared" si="4"/>
-        <v>3.0014519368946364E-4</v>
+        <v>2.8107661946619931E-4</v>
       </c>
       <c r="F52" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146,0,990952713457447,0,990282496365352,0,989683150405386,0,989018614010296,0,988383925755408</v>
       </c>
       <c r="G52" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099,0,000192262839971511,0,00020531388467202,0,000242690628394625,0,000254856424949928,0,000268292423451365,0,000281076619466199</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53.3</v>
       </c>
-      <c r="B53" s="7">
+      <c r="B53" s="6">
         <f t="shared" si="2"/>
-        <v>47.65</v>
+        <v>45.784499999999994</v>
       </c>
       <c r="C53" s="4">
         <v>2</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" si="3"/>
-        <v>0.98673252791017285</v>
+        <v>0.98773237469325559</v>
       </c>
       <c r="E53" s="5">
         <f t="shared" si="4"/>
-        <v>2.895951102961281E-4</v>
+        <v>2.6974643623227173E-4</v>
       </c>
       <c r="F53" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146,0,990952713457447,0,990282496365352,0,989683150405386,0,989018614010296,0,988383925755408,0,987732374693256</v>
       </c>
       <c r="G53" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099,0,000192262839971511,0,00020531388467202,0,000242690628394625,0,000254856424949928,0,000268292423451365,0,000281076619466199,0,000269746436232272</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54.5</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B54" s="6">
         <f t="shared" si="2"/>
-        <v>48.85</v>
+        <v>46.942500000000003</v>
       </c>
       <c r="C54" s="4">
         <v>2</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" si="3"/>
-        <v>0.98606994203622167</v>
+        <v>0.98711606513951711</v>
       </c>
       <c r="E54" s="5">
         <f t="shared" si="4"/>
-        <v>3.0271023622720808E-4</v>
+        <v>2.8198954821480858E-4</v>
       </c>
       <c r="F54" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146,0,990952713457447,0,990282496365352,0,989683150405386,0,989018614010296,0,988383925755408,0,987732374693256,0,987116065139517</v>
       </c>
       <c r="G54" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099,0,000192262839971511,0,00020531388467202,0,000242690628394625,0,000254856424949928,0,000268292423451365,0,000281076619466199,0,000269746436232272,0,000281989548214809</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55.7</v>
       </c>
-      <c r="B55" s="7">
+      <c r="B55" s="6">
         <f t="shared" si="2"/>
-        <v>50.050000000000004</v>
+        <v>48.100500000000004</v>
       </c>
       <c r="C55" s="4">
         <v>2</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" si="3"/>
-        <v>0.98539226042319161</v>
+        <v>0.98648555802673499</v>
       </c>
       <c r="E55" s="5">
         <f t="shared" si="4"/>
-        <v>3.1609318174796627E-4</v>
+        <v>2.9448712732438548E-4</v>
       </c>
       <c r="F55" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222,0,985392260423192</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146,0,990952713457447,0,990282496365352,0,989683150405386,0,989018614010296,0,988383925755408,0,987732374693256,0,987116065139517,0,986485558026735</v>
       </c>
       <c r="G55" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208,0,000316093181747966</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099,0,000192262839971511,0,00020531388467202,0,000242690628394625,0,000254856424949928,0,000268292423451365,0,000281076619466199,0,000269746436232272,0,000281989548214809,0,000294487127324385</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56.9</v>
       </c>
-      <c r="B56" s="7">
+      <c r="B56" s="6">
         <f t="shared" si="2"/>
-        <v>51.25</v>
+        <v>49.258499999999998</v>
       </c>
       <c r="C56" s="4">
         <v>2</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="3"/>
-        <v>0.98469958001662206</v>
+        <v>0.98584093784186799</v>
       </c>
       <c r="E56" s="5">
         <f t="shared" si="4"/>
-        <v>3.2974041563657163E-4</v>
+        <v>3.0723612219718061E-4</v>
       </c>
       <c r="F56" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222,0,985392260423192,0,984699580016622</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146,0,990952713457447,0,990282496365352,0,989683150405386,0,989018614010296,0,988383925755408,0,987732374693256,0,987116065139517,0,986485558026735,0,985840937841868</v>
       </c>
       <c r="G56" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208,0,000316093181747966,0,000329740415636572</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099,0,000192262839971511,0,00020531388467202,0,000242690628394625,0,000254856424949928,0,000268292423451365,0,000281076619466199,0,000269746436232272,0,000281989548214809,0,000294487127324385,0,000307236122197181</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>58</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B57" s="6">
         <f t="shared" si="2"/>
-        <v>52.35</v>
+        <v>50.32</v>
       </c>
       <c r="C57" s="4">
         <v>2</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" si="3"/>
-        <v>0.98405153123633393</v>
+        <v>0.98523771155221529</v>
       </c>
       <c r="E57" s="5">
         <f t="shared" si="4"/>
-        <v>3.4247946880127826E-4</v>
+        <v>3.191408940256443E-4</v>
       </c>
       <c r="F57" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222,0,985392260423192,0,984699580016622,0,984051531236334</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146,0,990952713457447,0,990282496365352,0,989683150405386,0,989018614010296,0,988383925755408,0,987732374693256,0,987116065139517,0,986485558026735,0,985840937841868,0,985237711552215</v>
       </c>
       <c r="G57" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208,0,000316093181747966,0,000329740415636572,0,000342479468801278</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099,0,000192262839971511,0,00020531388467202,0,000242690628394625,0,000254856424949928,0,000268292423451365,0,000281076619466199,0,000269746436232272,0,000281989548214809,0,000294487127324385,0,000307236122197181,0,000319140894025644</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>59.1</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B58" s="6">
         <f t="shared" si="2"/>
-        <v>53.45</v>
+        <v>51.381500000000003</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" si="3"/>
-        <v>0.98339103955828666</v>
+        <v>0.98462276612702071</v>
       </c>
       <c r="E58" s="5">
         <f t="shared" si="4"/>
-        <v>3.3966391975879504E-4</v>
+        <v>3.1547012898061703E-4</v>
       </c>
       <c r="F58" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222,0,985392260423192,0,984699580016622,0,984051531236334,0,983391039558287</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146,0,990952713457447,0,990282496365352,0,989683150405386,0,989018614010296,0,988383925755408,0,987732374693256,0,987116065139517,0,986485558026735,0,985840937841868,0,985237711552215,0,984622766127021</v>
       </c>
       <c r="G58" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208,0,000316093181747966,0,000329740415636572,0,000342479468801278,0,000339663919758795</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099,0,000192262839971511,0,00020531388467202,0,000242690628394625,0,000254856424949928,0,000268292423451365,0,000281076619466199,0,000269746436232272,0,000281989548214809,0,000294487127324385,0,000307236122197181,0,000319140894025644,0,000315470128980617</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>60.1</v>
       </c>
-      <c r="B59" s="7">
+      <c r="B59" s="6">
         <f t="shared" si="2"/>
-        <v>54.45</v>
+        <v>52.346499999999999</v>
       </c>
       <c r="C59" s="4">
         <v>1</v>
       </c>
       <c r="D59" s="3">
         <f t="shared" si="3"/>
-        <v>0.9827798610758236</v>
+        <v>0.98405361298358396</v>
       </c>
       <c r="E59" s="5">
         <f t="shared" si="4"/>
-        <v>3.5163450545554198E-4</v>
+        <v>3.2666102592660272E-4</v>
       </c>
       <c r="F59" t="str">
         <f t="shared" si="5"/>
-        <v>0,999809740729011,0,999121073453136,0,998429436317025,0,997752260867739,0,997061569550801,0,996367946819669,0,995666118847986,0,994972348739954,0,994264908345292,0,993589499015151,0,992918148781308,0,992256777447181,0,991566966250193,0,990894600331773,0,990197552700962,0,989475983305458,0,988830915140003,0,988115893151981,0,987433183857282,0,986732527910173,0,986069942036222,0,985392260423192,0,984699580016622,0,984051531236334,0,983391039558287,0,982779861075824</v>
+        <v>0,999835438412054,0,999208793561516,0,998573797135517,0,997950113224512,0,997312815467043,0,996671993864603,0,996022959537613,0,995380874836903,0,994725708040293,0,994099855041785,0,993477462891098,0,992864057400302,0,992224018698006,0,99159993385146,0,990952713457447,0,990282496365352,0,989683150405386,0,989018614010296,0,988383925755408,0,987732374693256,0,987116065139517,0,986485558026735,0,985840937841868,0,985237711552215,0,984622766127021,0,984053612983584</v>
       </c>
       <c r="G59" t="str">
         <f t="shared" si="6"/>
-        <v>7,77714154741341E-06,2,31435450569614E-05,3,76166948446179E-05,5,16152030808066E-05,6,58126748823443E-05,8,00164382491712E-05,0,000109201033627679,0,000123543216210472,0,000138079123742121,0,000151888790957192,0,000165559372514752,0,000178978502961616,0,000192928528623897,0,000206483929585413,0,000220496127025511,0,00025905084010525,0,000272077906469174,0,000286462057415118,0,000300145193689464,0,000289595110296128,0,000302710236227208,0,000316093181747966,0,000329740415636572,0,000342479468801278,0,000339663919758795,0,000351634505455542</v>
+        <v>7,10779319901259E-06,2,12800641466003E-05,3,46165334026912E-05,4,75352903193831E-05,6,06553135667193E-05,7,37960134267335E-05,0,000101782528967465,0,00011510967036543,0,00012862015649564,0,000141459549180699,0,000154173840954021,0,000166658605663792,0,000179642014917099,0,000192262839971511,0,00020531388467202,0,000242690628394625,0,000254856424949928,0,000268292423451365,0,000281076619466199,0,000269746436232272,0,000281989548214809,0,000294487127324385,0,000307236122197181,0,000319140894025644,0,000315470128980617,0,000326661025926603</v>
+      </c>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>1.9503402184689794E-5</v>
       </c>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2927,7 +2930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9516477-CD91-47AC-8E0F-6BFAD453E8B1}">
   <dimension ref="B1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
